--- a/王俊.xlsx
+++ b/王俊.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj\other\gk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03ADAA9-0D20-45DC-8049-D77E880CF106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23589FCD-3724-40A0-BA1D-999AB89C1B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张未然" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -690,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="3">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:5">
